--- a/Lab1/analysis/Func2/double-2.xlsx
+++ b/Lab1/analysis/Func2/double-2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilan\Programming\University\AILab\Lab1\analysis\Func2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\AI lab\AILab\Lab1\analysis\Func2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="double-2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -597,6 +597,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1882,7 +1883,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0C8-44D8-B610-AD7D54AC2B05}"/>
             </c:ext>
@@ -1896,11 +1897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467846272"/>
-        <c:axId val="467844960"/>
+        <c:axId val="119615056"/>
+        <c:axId val="119623760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467846272"/>
+        <c:axId val="119615056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1921,6 +1922,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mutation Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Percent)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1958,13 +2020,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467844960"/>
+        <c:crossAx val="119623760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467844960"/>
+        <c:axId val="119623760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -1985,6 +2047,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2022,7 +2145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467846272"/>
+        <c:crossAx val="119615056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2072,7 +2195,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2111,6 +2234,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3396,7 +3520,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1C67-4935-BEC9-4E50AE1B42DD}"/>
             </c:ext>
@@ -3410,11 +3534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467846272"/>
-        <c:axId val="467844960"/>
+        <c:axId val="119625392"/>
+        <c:axId val="119617776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467846272"/>
+        <c:axId val="119625392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3472,13 +3596,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467844960"/>
+        <c:crossAx val="119617776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467844960"/>
+        <c:axId val="119617776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -3536,7 +3660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467846272"/>
+        <c:crossAx val="119625392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3586,7 +3710,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3625,6 +3749,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4910,7 +5035,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-517B-49C4-9624-50A13AA599AE}"/>
             </c:ext>
@@ -4924,11 +5049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467846272"/>
-        <c:axId val="467844960"/>
+        <c:axId val="119612336"/>
+        <c:axId val="119615600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467846272"/>
+        <c:axId val="119612336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -4986,13 +5111,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467844960"/>
+        <c:crossAx val="119615600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467844960"/>
+        <c:axId val="119615600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -5050,7 +5175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467846272"/>
+        <c:crossAx val="119612336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
